--- a/Summaries/Distributors and DNO areas.xlsx
+++ b/Summaries/Distributors and DNO areas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14320" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DNO areas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="222">
   <si>
     <t>Franck's short name</t>
   </si>
@@ -797,9 +797,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -956,7 +996,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="160">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1017,6 +1057,26 @@
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1076,6 +1136,26 @@
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1408,10 +1488,10 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1551,21 +1631,11 @@
       <c r="Q2" s="11">
         <v>170</v>
       </c>
-      <c r="R2" s="11">
-        <v>524</v>
-      </c>
-      <c r="S2" s="11">
-        <v>2697</v>
-      </c>
-      <c r="T2" s="11">
-        <v>5563</v>
-      </c>
-      <c r="U2" s="11">
-        <v>172</v>
-      </c>
-      <c r="V2" s="11">
-        <v>172</v>
-      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
@@ -2763,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2901,13 +2971,13 @@
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D5" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -2917,96 +2987,96 @@
       <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J5" s="14">
-        <v>229</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C6" s="12">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="D6" s="12">
-        <v>0.375</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D7" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D8" s="12">
         <v>0.79166666666666663</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J8" s="14">
+        <v>229</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>203</v>
       </c>
@@ -3017,13 +3087,13 @@
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3033,25 +3103,29 @@
       <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9" s="1"/>
+      <c r="I9" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J9" s="14">
+        <v>229</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C10" s="12">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3073,28 +3147,24 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C11" s="12">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="14">
-        <v>301</v>
-      </c>
-      <c r="J11" s="14">
-        <v>1031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="1" t="s">
         <v>203</v>
       </c>
@@ -3105,28 +3175,24 @@
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C12" s="12">
-        <v>0.375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D12" s="12">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J12" s="14">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="1" t="s">
         <v>203</v>
       </c>
@@ -3137,13 +3203,13 @@
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C13" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D13" s="12">
-        <v>0.85416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3153,12 +3219,8 @@
       <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J13" s="14">
-        <v>229</v>
-      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="1" t="s">
         <v>203</v>
       </c>
@@ -3169,13 +3231,13 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
         <v>0.375</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.6875</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -3197,13 +3259,13 @@
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
         <v>0.6875</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.77083333333333337</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -3225,21 +3287,21 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C16" s="12">
         <v>0.77083333333333337</v>
       </c>
       <c r="D16" s="12">
-        <v>0.85416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3253,13 +3315,13 @@
         <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="12">
-        <v>0.6875</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D17" s="12">
-        <v>0.77083333333333337</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -3269,12 +3331,8 @@
       <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="I17" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J17" s="14">
-        <v>229</v>
-      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
         <v>221</v>
@@ -3285,13 +3343,13 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C18" s="12">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D18" s="12">
-        <v>0.375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -3303,31 +3361,31 @@
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="K18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
+        <v>204</v>
+      </c>
+      <c r="C19" s="16">
         <v>0.6875</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.77083333333333337</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -3341,41 +3399,45 @@
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20" s="12">
-        <v>0.77083333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D20" s="12">
-        <v>0</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I20" s="14">
+        <v>301</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1031</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C21" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D21" s="12">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -3385,25 +3447,29 @@
       <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="I21" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J21" s="14">
+        <v>229</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0.6875</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0.77083333333333337</v>
+        <v>205</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.85416666666666663</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -3413,12 +3479,16 @@
       <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="I22" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J22" s="14">
+        <v>229</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
@@ -3516,96 +3586,112 @@
         <v>221</v>
       </c>
     </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="12">
-        <v>0.375</v>
+        <v>0.6875</v>
       </c>
       <c r="D27" s="12">
-        <v>0.6875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="12">
-        <v>0.6875</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="1">
-        <v>6</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="12">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="42">
+      <c r="A29" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C30" s="12">
-        <v>0.6875</v>
+        <v>0.3125</v>
       </c>
       <c r="D30" s="12">
-        <v>0.77083333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -3615,35 +3701,31 @@
       <c r="H30" s="1">
         <v>5</v>
       </c>
-      <c r="I30" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J30" s="14">
-        <v>229</v>
-      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C31" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="12">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -3652,16 +3734,16 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C32" s="12">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D32" s="12">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -3678,24 +3760,24 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C33" s="12">
-        <v>0.77083333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D33" s="12">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -3704,16 +3786,16 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.8125</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -3723,23 +3805,27 @@
       <c r="H34" s="1">
         <v>5</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="I34" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J34" s="14">
+        <v>1221</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C35" s="16">
-        <v>0.6875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D35" s="16">
-        <v>0.77083333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -3749,23 +3835,27 @@
       <c r="H35" s="1">
         <v>5</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="I35" s="14">
+        <v>105</v>
+      </c>
+      <c r="J35" s="14">
+        <v>229</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C36" s="12">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="D36" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.3125</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -3775,81 +3865,377 @@
       <c r="H36" s="1">
         <v>5</v>
       </c>
-      <c r="I36" s="14">
-        <v>301</v>
-      </c>
-      <c r="J36" s="14">
-        <v>1031</v>
-      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C37" s="12">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="D37" s="12">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H37" s="1">
-        <v>5</v>
-      </c>
-      <c r="I37" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J37" s="14">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C38" s="12">
-        <v>0.77083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D38" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1">
-        <v>5</v>
-      </c>
-      <c r="I38" s="14">
-        <v>1101</v>
-      </c>
-      <c r="J38" s="14">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="1">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="1">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1221</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1101</v>
+      </c>
+      <c r="J45" s="14">
+        <v>1221</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="14">
+        <v>105</v>
+      </c>
+      <c r="J46" s="14">
+        <v>229</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="14">
+        <v>105</v>
+      </c>
+      <c r="J47" s="14">
+        <v>229</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="I48" s="14">
+        <v>301</v>
+      </c>
+      <c r="J48" s="14">
+        <v>1031</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1222</v>
+      </c>
+      <c r="J49" s="14">
+        <v>104</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L11">
-    <sortState ref="A2:L13">
-      <sortCondition ref="B1:B13"/>
-    </sortState>
-  </autoFilter>
+  <sortState ref="A2:L27">
+    <sortCondition ref="B9"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
